--- a/outputs/scrapped_data/education/scraped_data.xlsx
+++ b/outputs/scrapped_data/education/scraped_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="454">
   <si>
     <t>course</t>
   </si>
@@ -43,22 +43,1339 @@
     <t>Python for Data Science, AI &amp; Development</t>
   </si>
   <si>
+    <t>Python Project for Data Science</t>
+  </si>
+  <si>
+    <t>Tools for Data Science</t>
+  </si>
+  <si>
+    <t>Introduction to Data Science Techniques</t>
+  </si>
+  <si>
+    <t>Statistics For Data Science</t>
+  </si>
+  <si>
+    <t>Python for Data Science (and Version Control with GitHub)</t>
+  </si>
+  <si>
+    <t>Python for Genomic Data Science</t>
+  </si>
+  <si>
+    <t>Data Science Fundamentals Part 2: Unit 1</t>
+  </si>
+  <si>
+    <t>Data Science as a Field</t>
+  </si>
+  <si>
+    <t>Data Science for Business Innovation</t>
+  </si>
+  <si>
+    <t>Master of Computer Science (feat. Data Science Track)</t>
+  </si>
+  <si>
+    <t>Data Science in Health Technology Assessment</t>
+  </si>
+  <si>
+    <t>Generative AI for Data Science with Copilot</t>
+  </si>
+  <si>
+    <t>Genomic Data Science and Clustering (Bioinformatics V)</t>
+  </si>
+  <si>
+    <t>Advanced Linear Models for Data Science 2: Statistical Linear Models</t>
+  </si>
+  <si>
+    <t>Data Science Project Capstone: Predicting Bicycle Rental</t>
+  </si>
+  <si>
+    <t>Google Advanced Data Analytics</t>
+  </si>
+  <si>
+    <t>R Programming</t>
+  </si>
+  <si>
+    <t>Basic Data Processing and Visualization</t>
+  </si>
+  <si>
+    <t>Data Analytics and Deep Learning</t>
+  </si>
+  <si>
+    <t>DeepLearning.AI Data Engineering</t>
+  </si>
+  <si>
+    <t>Foundations of Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Building Data Visualization Tools</t>
+  </si>
+  <si>
+    <t>Data Visualization in Stata</t>
+  </si>
+  <si>
+    <t>Python Data Products for Predictive Analytics</t>
+  </si>
+  <si>
+    <t>Software Architecture for Big Data</t>
+  </si>
+  <si>
+    <t>Scalable Machine Learning on Big Data using Apache Spark</t>
+  </si>
+  <si>
+    <t>Agile Dashboards for Data-Driven Decision-Making</t>
+  </si>
+  <si>
+    <t>First Steps in Python with Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>The R Programming Environment</t>
+  </si>
+  <si>
+    <t>AI for Scientific Research</t>
+  </si>
+  <si>
+    <t>Introduction to the Tidyverse</t>
+  </si>
+  <si>
+    <t>Machine Learning Rapid Prototyping with IBM Watson Studio</t>
+  </si>
+  <si>
+    <t>Modeling Climate Anomalies with Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Introduction to R Programming and Tidyverse</t>
+  </si>
+  <si>
+    <t>Predicting Extreme Climate Behavior with Machine Learning</t>
+  </si>
+  <si>
+    <t>Network Analysis for Marketing Analytics</t>
+  </si>
+  <si>
+    <t>Practical Geospatial Geostatistical Modeling</t>
+  </si>
+  <si>
+    <t>Azure ML: Designing and Preparing Machine Learning Solutions</t>
+  </si>
+  <si>
+    <t>Generative AI Foundations</t>
+  </si>
+  <si>
+    <t>H2O ai Large Language Models (LLMs) - Level 3</t>
+  </si>
+  <si>
+    <t>Introduction to Python</t>
+  </si>
+  <si>
+    <t>Microsoft Python Development</t>
+  </si>
+  <si>
+    <t>Introduction to High-Performance and Parallel Computing</t>
+  </si>
+  <si>
+    <t>Business Analytics</t>
+  </si>
+  <si>
+    <t>Advanced Topics and Future Trends in Database Technologies</t>
+  </si>
+  <si>
+    <t>Fundamentals of Natural Language Processing</t>
+  </si>
+  <si>
+    <t>C Programming: Using Linux Tools and Libraries - 7</t>
+  </si>
+  <si>
+    <t>Exam Prep AI-900: Microsoft Certified Azure AI Fundamentals</t>
+  </si>
+  <si>
+    <t>Machine Learning and Emerging Technologies in Cybersecurity</t>
+  </si>
+  <si>
+    <t>Mathematics for Computer Science</t>
+  </si>
+  <si>
+    <t>Computer Science:  Algorithms, Theory, and Machines</t>
+  </si>
+  <si>
+    <t>IBM Data Engineering</t>
+  </si>
+  <si>
+    <t>Data Analytics Foundations</t>
+  </si>
+  <si>
+    <t>Process Data from Dirty to Clean</t>
+  </si>
+  <si>
+    <t>Introduction to Data Analytics</t>
+  </si>
+  <si>
+    <t>Google Data Analytics Capstone: Complete a Case Study</t>
+  </si>
+  <si>
+    <t>Enterprise Data Architecture and Operations</t>
+  </si>
+  <si>
+    <t>Data Analysis with Spreadsheets and SQL</t>
+  </si>
+  <si>
+    <t>Data Management for Clinical Research</t>
+  </si>
+  <si>
+    <t>SQL Fundamentals for Data Analysts</t>
+  </si>
+  <si>
+    <t>Prep for Microsoft Azure Data Engineer Associate Cert DP-203</t>
+  </si>
+  <si>
+    <t>Science Literacy</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Computer Science</t>
+  </si>
+  <si>
+    <t>Intellectual Humility: Science</t>
+  </si>
+  <si>
+    <t>Introduction to Complexity Science</t>
+  </si>
+  <si>
+    <t>Making Science Reproducible - A Capstone Course</t>
+  </si>
+  <si>
+    <t>Philosophy and the Sciences: Introduction to the Philosophy of Cognitive Sciences</t>
+  </si>
+  <si>
+    <t>Data Ecosystem</t>
+  </si>
+  <si>
+    <t>Sensory Science: Measuring the Senses</t>
+  </si>
+  <si>
+    <t>Master of Science in Information Systems</t>
+  </si>
+  <si>
+    <t>Data Analysis Tools</t>
+  </si>
+  <si>
+    <t>Data Pipelines with TensorFlow Data Services</t>
+  </si>
+  <si>
+    <t>Data Cleaning in Excel: Techniques to Clean Messy Data</t>
+  </si>
+  <si>
+    <t>Data Management and Visualization</t>
+  </si>
+  <si>
+    <t>Science of Training Young Athletes Part 2</t>
+  </si>
+  <si>
+    <t>Constructivism and Mathematics, Science, and Technology Education</t>
+  </si>
+  <si>
+    <t>How to Describe Data</t>
+  </si>
+  <si>
+    <t>Data Visualization &amp; Dashboarding with R</t>
+  </si>
+  <si>
+    <t>Business Data Management and Communication</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis with MATLAB</t>
+  </si>
+  <si>
+    <t>Drug Hunting: The Science of Making New Medicines</t>
+  </si>
+  <si>
+    <t>Data-Driven Systems: DBMS, SQL &amp; Data Modeling</t>
+  </si>
+  <si>
+    <t>Data Visualization with Tableau Project</t>
+  </si>
+  <si>
+    <t>Machine Learning for Data Analysis</t>
+  </si>
+  <si>
+    <t>Understanding and Visualizing Data with Python</t>
+  </si>
+  <si>
+    <t>Data Visualization: Fundamentals to Interactive Storytelling</t>
+  </si>
+  <si>
+    <t>Predictive Models: Build, Explore Data &amp; Deploy</t>
+  </si>
+  <si>
+    <t>Framework for Data Collection and Analysis</t>
+  </si>
+  <si>
+    <t>Python and Pandas for Data Engineering</t>
+  </si>
+  <si>
+    <t>Advanced Techniques in Data Visualization</t>
+  </si>
+  <si>
+    <t>Data Visualization in R with ggplot2</t>
+  </si>
+  <si>
+    <t>Secure your Cloud Data</t>
+  </si>
+  <si>
+    <t>Advanced Data Techniques for Enterprise AI Systems</t>
+  </si>
+  <si>
+    <t>Introduzione alla Data Visualization con Tableau</t>
+  </si>
+  <si>
+    <t>Modernizing Data Lakes &amp; Data Warehouses with GCP - íêµ­ì´</t>
+  </si>
+  <si>
+    <t>MySQL-for-Data-Engineering</t>
+  </si>
+  <si>
+    <t>Foundations for Big Data Analysis with SQL</t>
+  </si>
+  <si>
+    <t>Fundamentals of Data Warehousing</t>
+  </si>
+  <si>
+    <t>Introduction to Generative AI for Data Analysis</t>
+  </si>
+  <si>
     <t>4.6</t>
   </si>
   <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
     <t>42K reviews</t>
   </si>
   <si>
+    <t>4.7K reviews</t>
+  </si>
+  <si>
+    <t>30K reviews</t>
+  </si>
+  <si>
+    <t>17 reviews</t>
+  </si>
+  <si>
+    <t>36 reviews</t>
+  </si>
+  <si>
+    <t>6 reviews</t>
+  </si>
+  <si>
+    <t>1.8K reviews</t>
+  </si>
+  <si>
+    <t>25 reviews</t>
+  </si>
+  <si>
+    <t>38 reviews</t>
+  </si>
+  <si>
+    <t>266 reviews</t>
+  </si>
+  <si>
+    <t>177 reviews</t>
+  </si>
+  <si>
+    <t>19 reviews</t>
+  </si>
+  <si>
+    <t>28 reviews</t>
+  </si>
+  <si>
+    <t>93 reviews</t>
+  </si>
+  <si>
+    <t>102 reviews</t>
+  </si>
+  <si>
+    <t>16 reviews</t>
+  </si>
+  <si>
+    <t>8.3K reviews</t>
+  </si>
+  <si>
+    <t>22K reviews</t>
+  </si>
+  <si>
+    <t>198 reviews</t>
+  </si>
+  <si>
+    <t>497 reviews</t>
+  </si>
+  <si>
+    <t>851 reviews</t>
+  </si>
+  <si>
+    <t>158 reviews</t>
+  </si>
+  <si>
+    <t>2.4K reviews</t>
+  </si>
+  <si>
+    <t>247 reviews</t>
+  </si>
+  <si>
+    <t>101 reviews</t>
+  </si>
+  <si>
+    <t>1.3K reviews</t>
+  </si>
+  <si>
+    <t>10 reviews</t>
+  </si>
+  <si>
+    <t>1K reviews</t>
+  </si>
+  <si>
+    <t>1.2K reviews</t>
+  </si>
+  <si>
+    <t>80 reviews</t>
+  </si>
+  <si>
+    <t>52 reviews</t>
+  </si>
+  <si>
+    <t>15 reviews</t>
+  </si>
+  <si>
+    <t>295 reviews</t>
+  </si>
+  <si>
+    <t>48 reviews</t>
+  </si>
+  <si>
+    <t>9 reviews</t>
+  </si>
+  <si>
+    <t>50K reviews</t>
+  </si>
+  <si>
+    <t>11 reviews</t>
+  </si>
+  <si>
+    <t>224 reviews</t>
+  </si>
+  <si>
+    <t>2.2K reviews</t>
+  </si>
+  <si>
+    <t>427 reviews</t>
+  </si>
+  <si>
+    <t>143 reviews</t>
+  </si>
+  <si>
+    <t>1.1K reviews</t>
+  </si>
+  <si>
+    <t>60 reviews</t>
+  </si>
+  <si>
+    <t>20 reviews</t>
+  </si>
+  <si>
+    <t>29 reviews</t>
+  </si>
+  <si>
+    <t>86 reviews</t>
+  </si>
+  <si>
+    <t>245 reviews</t>
+  </si>
+  <si>
+    <t>248 reviews</t>
+  </si>
+  <si>
+    <t>721 reviews</t>
+  </si>
+  <si>
+    <t>60K reviews</t>
+  </si>
+  <si>
+    <t>132 reviews</t>
+  </si>
+  <si>
+    <t>18K reviews</t>
+  </si>
+  <si>
+    <t>945 reviews</t>
+  </si>
+  <si>
+    <t>19K reviews</t>
+  </si>
+  <si>
+    <t>7 reviews</t>
+  </si>
+  <si>
+    <t>255 reviews</t>
+  </si>
+  <si>
+    <t>50 reviews</t>
+  </si>
+  <si>
+    <t>265 reviews</t>
+  </si>
+  <si>
+    <t>160 reviews</t>
+  </si>
+  <si>
+    <t>185 reviews</t>
+  </si>
+  <si>
+    <t>31 reviews</t>
+  </si>
+  <si>
+    <t>62 reviews</t>
+  </si>
+  <si>
+    <t>1.4K reviews</t>
+  </si>
+  <si>
+    <t>115 reviews</t>
+  </si>
+  <si>
+    <t>8 reviews</t>
+  </si>
+  <si>
+    <t>2.3K reviews</t>
+  </si>
+  <si>
+    <t>415 reviews</t>
+  </si>
+  <si>
+    <t>534 reviews</t>
+  </si>
+  <si>
+    <t>47 reviews</t>
+  </si>
+  <si>
+    <t>940 reviews</t>
+  </si>
+  <si>
+    <t>114 reviews</t>
+  </si>
+  <si>
+    <t>23 reviews</t>
+  </si>
+  <si>
+    <t>432 reviews</t>
+  </si>
+  <si>
+    <t>6.3K reviews</t>
+  </si>
+  <si>
+    <t>816 reviews</t>
+  </si>
+  <si>
+    <t>228 reviews</t>
+  </si>
+  <si>
+    <t>576 reviews</t>
+  </si>
+  <si>
+    <t>325 reviews</t>
+  </si>
+  <si>
+    <t>2.7K reviews</t>
+  </si>
+  <si>
+    <t>766 reviews</t>
+  </si>
+  <si>
+    <t>253 reviews</t>
+  </si>
+  <si>
+    <t>367 reviews</t>
+  </si>
+  <si>
+    <t>129 reviews</t>
+  </si>
+  <si>
+    <t>138 reviews</t>
+  </si>
+  <si>
+    <t>12 reviews</t>
+  </si>
+  <si>
+    <t>65 reviews</t>
+  </si>
+  <si>
     <t>IBM</t>
   </si>
   <si>
+    <t>Illinois Tech</t>
+  </si>
+  <si>
+    <t>Coursera Project Network</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>University of Colorado Boulder</t>
+  </si>
+  <si>
+    <t>EIT Digital</t>
+  </si>
+  <si>
+    <t>University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>Genentech</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>University of California San Diego</t>
+  </si>
+  <si>
+    <t>University of London</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Multiple educators</t>
+  </si>
+  <si>
+    <t>Packt</t>
+  </si>
+  <si>
+    <t>Duke University</t>
+  </si>
+  <si>
+    <t>LearnQuest</t>
+  </si>
+  <si>
+    <t>Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>Whizlabs</t>
+  </si>
+  <si>
+    <t>Edureka</t>
+  </si>
+  <si>
+    <t>H2O.ai</t>
+  </si>
+  <si>
+    <t>University of Illinois Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>DeepLearning.AI</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>SkillUp</t>
+  </si>
+  <si>
+    <t>Vanderbilt University</t>
+  </si>
+  <si>
+    <t>Corporate Finance Institute</t>
+  </si>
+  <si>
+    <t>University of Alberta</t>
+  </si>
+  <si>
+    <t>The University of Edinburgh</t>
+  </si>
+  <si>
+    <t>Nanyang Technological University, Singapore</t>
+  </si>
+  <si>
+    <t>Fred Hutchinson Cancer Center</t>
+  </si>
+  <si>
+    <t>Tableau Learning Partner</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>Wesleyan University</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>MathWorks</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>EDUCBA</t>
+  </si>
+  <si>
+    <t>University of Maryland, College Park</t>
+  </si>
+  <si>
+    <t>Fractal Analytics</t>
+  </si>
+  <si>
+    <t>UniversitÃ  di Napoli Federico II</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
+  </si>
+  <si>
+    <t>Cloudera</t>
+  </si>
+  <si>
     <t>Beginner Â· Course Â· 1 - 3 Months</t>
   </si>
   <si>
+    <t>Intermediate Â· Course Â· 1 - 4 Weeks</t>
+  </si>
+  <si>
+    <t>Intermediate Â· Specialization Â· 3 - 6 Months</t>
+  </si>
+  <si>
+    <t>Beginner Â· Guided Project Â· Less Than 2 Hours</t>
+  </si>
+  <si>
+    <t>Mixed Â· Course Â· 1 - 4 Weeks</t>
+  </si>
+  <si>
+    <t>Beginner Â· Course Â· 1 - 4 Weeks</t>
+  </si>
+  <si>
+    <t>Degree Â· 1 - 4 Years</t>
+  </si>
+  <si>
+    <t>Advanced Â· Course Â· 1 - 4 Weeks</t>
+  </si>
+  <si>
+    <t>Advanced Â· Professional Certificate Â· 3 - 6 Months</t>
+  </si>
+  <si>
+    <t>Intermediate Â· Course Â· 1 - 3 Months</t>
+  </si>
+  <si>
+    <t>Intermediate Â· Professional Certificate Â· 3 - 6 Months</t>
+  </si>
+  <si>
+    <t>Advanced Â· Specialization Â· 3 - 6 Months</t>
+  </si>
+  <si>
+    <t>Advanced Â· Specialization Â· 1 - 3 Months</t>
+  </si>
+  <si>
+    <t>Beginner Â· Specialization Â· 3 - 6 Months</t>
+  </si>
+  <si>
+    <t>Advanced Â· Course Â· 1 - 3 Months</t>
+  </si>
+  <si>
+    <t>Beginner Â· Professional Certificate Â· 3 - 6 Months</t>
+  </si>
+  <si>
+    <t>Mixed Â· Course Â· 1 - 3 Months</t>
+  </si>
+  <si>
+    <t>Intermediate Â· Guided Project Â· Less Than 2 Hours</t>
+  </si>
+  <si>
     <t>https://www.coursera.org/learn/python-for-applied-data-science-ai</t>
   </si>
   <si>
+    <t>https://www.coursera.org/learn/python-project-for-data-science</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/open-source-tools-for-data-science</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/introduction-to-data-science-techniques</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/projects/statistics-data-science</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/python-for-data-science-and-version-control-with-github</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/python-genomics</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/pearson-data-science-fundamentals-part-2-complete-video-course-machine-lea-0kay6</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-science-as-a-field</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-science-for-business-innovation</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/degrees/master-of-computer-science-illinois</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/health-economics-and-hta</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/generative-ai-for-data-science-with-copilot</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/genomic-data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/linear-models-2</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-science-project-capstone-predicting-bicycle-rental</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/professional-certificates/google-advanced-data-analytics</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/r-programming</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/basic-data-processing-visualization-python</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/data-analytics-and-deep-learning</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/professional-certificates/data-engineering</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/boulder-data-structures-algorithms</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/r-data-visualization</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/packt-data-visualization-in-stata-vp8xn</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/python-data-products-for-predictive-analytics</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/software-architecture-big-data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/machine-learning-big-data-apache-spark</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/agile-dashboards-data-driven-decision-making</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/first-steps-in-python-with-jupyter-notebooks</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/r-programming-environment</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/artificial-intelligence-scientific-research</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/tidyverse</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/ibm-rapid-prototyping-watson-studio-autoai</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/modeling-climate-anomalies-with-statistical-analysis</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/r-programming-tidyverse</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/predicting-extreme-climate-behavior-with-machine-learning</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/network-analysis-for-marketing-analytics</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/geospatial-geostatistical-modeling</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/azure-ml-designing-and-preparing-machine-learning-solutions</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/generative-ai-foundations</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/h2o-ai-large-language-models-llms-level-3</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/projects/introduction-to-python</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/professional-certificates/microsoft-python-developer</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/introduction-high-performance-computing</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/analytics</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/advanced-topics-future-trends-database-technologies</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/fundamentals-natural-language-processing</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/c-programming-using-linux-tools-and-libraries</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/exam-prep-ai-900-microsoft-certified-azure-ai-fundamentals</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/machine-learning-and-emerging-technologies-in-cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/mathematics-for-computer-science</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/cs-algorithms-theory-machines</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/professional-certificates/ibm-data-engineer</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-analytics-foundations</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/process-data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-analytics-introduction</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/google-data-analytics-capstone</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/enterprise-data-architecture-and-operations</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-analysis-with-spreadsheets-and-sql</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/clinical-data-management</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/sql-fundamentals-for-data-analysts</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/prep-for-microsoft-azure-data-engineer-associate-cert-dp-203</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/science-literacy</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/degrees/bachelor-of-science-computer-science-london</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/intellectual-humility-science</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/complexity</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/capstone-reproducible-science</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/philosophy-cognitive-sciences</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-ecosystem</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/sensory-science-measuring-the-senses</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/degrees/ms-information-systems-northeastern</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-analysis-tools</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-pipelines-tensorflow</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/projects/data-cleaning-excel-techniques-to-clean-messy-data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-visualization</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/science-of-training-young-athletes-part-2</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/constructivism</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/how-to-describe-data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/jhu-data-visualization-dashboarding-with-r</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/business-data-management-communication</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/exploratory-data-analysis-matlab</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/drug-hunting-discovery-and-development</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-driven-systems-dbms-sql--data-modeling</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/dataviz-project</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/machine-learning-data-analysis</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/understanding-visualization-data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/data-visualisation-fundamentals-to-interactive-storytelling</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/predictive-models-build-explore-data-deploy</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-collection-framework</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/python-and-pandas-for-data-engineering-duke</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/advanced-techniques-in-data-visualization</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/jhu-data-visualization-r</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/secure-your-cloud-data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/advanced-data-techniques-for-enterprise-ai-systems</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/introduzione-data-visualization-tableau</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/data-lakes-data-warehouses-gcp-ko</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/projects/mysql-for-data-engineering</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/foundations-big-data-analysis-sql</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/fundamentals-of-data-warehousing</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/introduction-to-generative-ai-for-data-analysis</t>
+  </si>
+  <si>
     <t>Joseph Santarcangelo</t>
+  </si>
+  <si>
+    <t>Azim Hirjani</t>
+  </si>
+  <si>
+    <t>Aije Egwaikhide</t>
+  </si>
+  <si>
+    <t>Ming-Long Lam</t>
+  </si>
+  <si>
+    <t>Muhammad Saad uddin</t>
+  </si>
+  <si>
+    <t>Professionals from the Industry</t>
+  </si>
+  <si>
+    <t>Mihaela Pertea, PhD</t>
+  </si>
+  <si>
+    <t>Jane Wall</t>
+  </si>
+  <si>
+    <t>Marco Brambilla</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Monica Daigl</t>
+  </si>
+  <si>
+    <t>Pavel  Pevzner</t>
+  </si>
+  <si>
+    <t>Brian Caffo, PhD</t>
+  </si>
+  <si>
+    <t>Robert Zimmer</t>
+  </si>
+  <si>
+    <t>Google Career Certificates</t>
+  </si>
+  <si>
+    <t>Roger D. Peng, PhD</t>
+  </si>
+  <si>
+    <t>Julian McAuley</t>
+  </si>
+  <si>
+    <t>Joe Reis</t>
+  </si>
+  <si>
+    <t>Sriram Sankaranarayanan</t>
+  </si>
+  <si>
+    <t>Packt - Course Instructors</t>
+  </si>
+  <si>
+    <t>Tyson Gern</t>
+  </si>
+  <si>
+    <t>Romeo Kienzler</t>
+  </si>
+  <si>
+    <t>Duke Corporate Education</t>
+  </si>
+  <si>
+    <t>Sabrina Moore</t>
+  </si>
+  <si>
+    <t>Shannon Ellis, PhD</t>
+  </si>
+  <si>
+    <t>Mark J Grover</t>
+  </si>
+  <si>
+    <t>Osita Onyejekwe</t>
+  </si>
+  <si>
+    <t>Chris J. Vargo</t>
+  </si>
+  <si>
+    <t>Jeffrey Yarus</t>
+  </si>
+  <si>
+    <t>Whizlabs Instructor</t>
+  </si>
+  <si>
+    <t>Andreea Turcu</t>
+  </si>
+  <si>
+    <t>David Dalsveen</t>
+  </si>
+  <si>
+    <t>Shelley Knuth</t>
+  </si>
+  <si>
+    <t>Unnati Narang</t>
+  </si>
+  <si>
+    <t>Di Wu</t>
+  </si>
+  <si>
+    <t>James Martin</t>
+  </si>
+  <si>
+    <t>RÃ©mi SHARROCK</t>
+  </si>
+  <si>
+    <t>Jason Crossland</t>
+  </si>
+  <si>
+    <t>Omar Karakchi</t>
+  </si>
+  <si>
+    <t>Robert Sedgewick</t>
+  </si>
+  <si>
+    <t>IBM Skills Network Team</t>
+  </si>
+  <si>
+    <t>Sean Barnes</t>
+  </si>
+  <si>
+    <t>Anke Audenaert</t>
+  </si>
+  <si>
+    <t>Ramesh Sannareddy</t>
+  </si>
+  <si>
+    <t>Brandon Larkin</t>
+  </si>
+  <si>
+    <t>Stephany Duda, PhD</t>
+  </si>
+  <si>
+    <t>CFI (Corporate Finance Institute)</t>
+  </si>
+  <si>
+    <t>Dr. Claire Scavuzzo</t>
+  </si>
+  <si>
+    <t>Dr. Ian Church</t>
+  </si>
+  <si>
+    <t>Cheong Siew Ann</t>
+  </si>
+  <si>
+    <t>Candace Savonen, MS</t>
+  </si>
+  <si>
+    <t>Professor Michela Massimi</t>
+  </si>
+  <si>
+    <t>Tableau Learning Partner Instructor</t>
+  </si>
+  <si>
+    <t>Rebecca Bleibaum</t>
+  </si>
+  <si>
+    <t>Jen Rose</t>
+  </si>
+  <si>
+    <t>Laurence Moroney</t>
+  </si>
+  <si>
+    <t>Dr. Chao Mbogho</t>
+  </si>
+  <si>
+    <t>Lisa Dierker</t>
+  </si>
+  <si>
+    <t>Dr. Chris Brooks</t>
+  </si>
+  <si>
+    <t>David E. Brown</t>
+  </si>
+  <si>
+    <t>Elle O'Brien</t>
+  </si>
+  <si>
+    <t>Collin Paschall</t>
+  </si>
+  <si>
+    <t>Erin Byrne</t>
+  </si>
+  <si>
+    <t>Erland Stevens, PhD</t>
+  </si>
+  <si>
+    <t>Simon W. Wang</t>
+  </si>
+  <si>
+    <t>Suk S. Brar, M.B.A.</t>
+  </si>
+  <si>
+    <t>Brenda Gunderson</t>
+  </si>
+  <si>
+    <t>P.J. Grosse</t>
+  </si>
+  <si>
+    <t>Frauke Kreuter, Ph.D.</t>
+  </si>
+  <si>
+    <t>Kennedy Behrman</t>
+  </si>
+  <si>
+    <t>Jesus Caban</t>
+  </si>
+  <si>
+    <t>David Drummond</t>
+  </si>
+  <si>
+    <t>Manuel Belgioioso</t>
+  </si>
+  <si>
+    <t>Google Cloud Training</t>
+  </si>
+  <si>
+    <t>Noah Gift</t>
+  </si>
+  <si>
+    <t>Glynn Durham</t>
+  </si>
+  <si>
+    <t>Erik Herman</t>
   </si>
 </sst>
 </file>
@@ -433,7 +1750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,30 +1787,2703 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45908.59399889768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45908.5940703665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45908.59414255257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45908.59421033273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45908.5942691255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45908.59435392018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3">
-        <v>45908.58331152465</v>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45908.5944582258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45908.59454631905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45908.59463124882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45908.59470648625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45908.59476919505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" t="s">
+        <v>387</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45908.59483603125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45908.59490233361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45908.59497785507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" t="s">
+        <v>389</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45908.59505077111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45908.59511365596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45908.59518198849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" t="s">
+        <v>392</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45908.59525264609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" t="s">
+        <v>393</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45908.5953188375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45908.5953876596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" t="s">
+        <v>394</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45908.59545036159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" t="s">
+        <v>395</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45908.59552243211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45908.59561490842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45908.5956811064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45908.59574831101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" t="s">
+        <v>397</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45908.59581210047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" t="s">
+        <v>398</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45908.59587642993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45908.59594654951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45908.59602489485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45908.5960913134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45908.5961712143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" t="s">
+        <v>401</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45908.59624164037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>402</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45908.5963080585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>403</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45908.59637098917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>384</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45908.59644379479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>403</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45908.59651705842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>404</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45908.59659402175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" t="s">
+        <v>405</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45908.59666089801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" t="s">
+        <v>406</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45908.59674002996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45908.59684458627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" t="s">
+        <v>407</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45908.59692492519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>408</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45908.59699541184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45908.59706126944</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>409</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45908.59713730873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46" s="3">
+        <v>45908.59721270068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" t="s">
+        <v>411</v>
+      </c>
+      <c r="H47" s="3">
+        <v>45908.59728325812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G48" t="s">
+        <v>412</v>
+      </c>
+      <c r="H48" s="3">
+        <v>45908.59735774743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" t="s">
+        <v>413</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45908.59743338462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" t="s">
+        <v>406</v>
+      </c>
+      <c r="H50" s="3">
+        <v>45908.5975045357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" t="s">
+        <v>414</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45908.59757432397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" t="s">
+        <v>415</v>
+      </c>
+      <c r="H52" s="3">
+        <v>45908.5976407383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" t="s">
+        <v>416</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45908.59770831042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" t="s">
+        <v>274</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" t="s">
+        <v>417</v>
+      </c>
+      <c r="H54" s="3">
+        <v>45908.59777899966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G55" t="s">
+        <v>418</v>
+      </c>
+      <c r="H55" s="3">
+        <v>45908.59785111534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" t="s">
+        <v>391</v>
+      </c>
+      <c r="H56" s="3">
+        <v>45908.59791973857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G57" t="s">
+        <v>419</v>
+      </c>
+      <c r="H57" s="3">
+        <v>45908.59800333603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" t="s">
+        <v>264</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G58" t="s">
+        <v>391</v>
+      </c>
+      <c r="H58" s="3">
+        <v>45908.5980689955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G59" t="s">
+        <v>420</v>
+      </c>
+      <c r="H59" s="3">
+        <v>45908.59815875175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G60" t="s">
+        <v>421</v>
+      </c>
+      <c r="H60" s="3">
+        <v>45908.5982310797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G61" t="s">
+        <v>422</v>
+      </c>
+      <c r="H61" s="3">
+        <v>45908.59829776415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G62" t="s">
+        <v>423</v>
+      </c>
+      <c r="H62" s="3">
+        <v>45908.59837196536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" t="s">
+        <v>260</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" s="3">
+        <v>45908.59843856957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G64" t="s">
+        <v>424</v>
+      </c>
+      <c r="H64" s="3">
+        <v>45908.59850667544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" t="s">
+        <v>265</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G65" t="s">
+        <v>386</v>
+      </c>
+      <c r="H65" s="3">
+        <v>45908.59856780317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G66" t="s">
+        <v>425</v>
+      </c>
+      <c r="H66" s="3">
+        <v>45908.59863623275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G67" t="s">
+        <v>426</v>
+      </c>
+      <c r="H67" s="3">
+        <v>45908.59873215484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" t="s">
+        <v>427</v>
+      </c>
+      <c r="H68" s="3">
+        <v>45908.59880538563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" t="s">
+        <v>428</v>
+      </c>
+      <c r="H69" s="3">
+        <v>45908.59889280338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" t="s">
+        <v>429</v>
+      </c>
+      <c r="H70" s="3">
+        <v>45908.59896010487</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" t="s">
+        <v>430</v>
+      </c>
+      <c r="H71" s="3">
+        <v>45908.59903024831</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" t="s">
+        <v>265</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G72" t="s">
+        <v>386</v>
+      </c>
+      <c r="H72" s="3">
+        <v>45908.59909579613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G73" t="s">
+        <v>431</v>
+      </c>
+      <c r="H73" s="3">
+        <v>45908.59915881864</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G74" t="s">
+        <v>432</v>
+      </c>
+      <c r="H74" s="3">
+        <v>45908.59925178583</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" t="s">
+        <v>276</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G75" t="s">
+        <v>433</v>
+      </c>
+      <c r="H75" s="3">
+        <v>45908.59933405689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76" t="s">
+        <v>275</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G76" t="s">
+        <v>434</v>
+      </c>
+      <c r="H76" s="3">
+        <v>45908.599419664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G77" t="s">
+        <v>435</v>
+      </c>
+      <c r="H77" s="3">
+        <v>45908.59949932277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G78" t="s">
+        <v>436</v>
+      </c>
+      <c r="H78" s="3">
+        <v>45908.59956707974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" t="s">
+        <v>264</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G79" t="s">
+        <v>437</v>
+      </c>
+      <c r="H79" s="3">
+        <v>45908.59964029703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G80" t="s">
+        <v>438</v>
+      </c>
+      <c r="H80" s="3">
+        <v>45908.59970275126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G81" t="s">
+        <v>410</v>
+      </c>
+      <c r="H81" s="3">
+        <v>45908.59977002908</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" t="s">
+        <v>439</v>
+      </c>
+      <c r="H82" s="3">
+        <v>45908.59985772714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G83" t="s">
+        <v>440</v>
+      </c>
+      <c r="H83" s="3">
+        <v>45908.59991967554</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" t="s">
+        <v>263</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G84" t="s">
+        <v>441</v>
+      </c>
+      <c r="H84" s="3">
+        <v>45908.59998469557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" t="s">
+        <v>268</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G85" t="s">
+        <v>442</v>
+      </c>
+      <c r="H85" s="3">
+        <v>45908.60005719963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" t="s">
+        <v>263</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G86" t="s">
+        <v>431</v>
+      </c>
+      <c r="H86" s="3">
+        <v>45908.60012210268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G87" t="s">
+        <v>443</v>
+      </c>
+      <c r="H87" s="3">
+        <v>45908.60019062752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" t="s">
+        <v>252</v>
+      </c>
+      <c r="E88" t="s">
+        <v>261</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G88" t="s">
+        <v>444</v>
+      </c>
+      <c r="H88" s="3">
+        <v>45908.60025181703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" t="s">
+        <v>263</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G89" t="s">
+        <v>253</v>
+      </c>
+      <c r="H89" s="3">
+        <v>45908.60032167011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" t="s">
+        <v>260</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G90" t="s">
+        <v>445</v>
+      </c>
+      <c r="H90" s="3">
+        <v>45908.60042258338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" t="s">
+        <v>264</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G91" t="s">
+        <v>446</v>
+      </c>
+      <c r="H91" s="3">
+        <v>45908.60051886681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G92" t="s">
+        <v>447</v>
+      </c>
+      <c r="H92" s="3">
+        <v>45908.60060507459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" t="s">
+        <v>260</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G93" t="s">
+        <v>438</v>
+      </c>
+      <c r="H93" s="3">
+        <v>45908.60066993869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G94" t="s">
+        <v>220</v>
+      </c>
+      <c r="H94" s="3">
+        <v>45908.60073887504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" t="s">
+        <v>268</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G95" t="s">
+        <v>448</v>
+      </c>
+      <c r="H95" s="3">
+        <v>45908.60080508742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" t="s">
+        <v>259</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G96" t="s">
+        <v>449</v>
+      </c>
+      <c r="H96" s="3">
+        <v>45908.60087106311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" t="s">
+        <v>257</v>
+      </c>
+      <c r="E97" t="s">
+        <v>268</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G97" t="s">
+        <v>450</v>
+      </c>
+      <c r="H97" s="3">
+        <v>45908.60095067527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98" t="s">
+        <v>226</v>
+      </c>
+      <c r="E98" t="s">
+        <v>262</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G98" t="s">
+        <v>451</v>
+      </c>
+      <c r="H98" s="3">
+        <v>45908.60101936046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G99" t="s">
+        <v>452</v>
+      </c>
+      <c r="H99" s="3">
+        <v>45908.60109697138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" t="s">
+        <v>264</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G100" t="s">
+        <v>453</v>
+      </c>
+      <c r="H100" s="3">
+        <v>45908.60117081791</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" t="s">
+        <v>268</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G101" t="s">
+        <v>220</v>
+      </c>
+      <c r="H101" s="3">
+        <v>45908.60125350992</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
